--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/artfynd/A 17141-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/artfynd/A 17141-2019.xlsx", "A 17141-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/kartor/A 17141-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/kartor/A 17141-2019.png", "A 17141-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomål/A 17141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomål/A 17141-2019.docx", "A 17141-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomålsmail/A 17141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomålsmail/A 17141-2019.docx", "A 17141-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsyn/A 17141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsyn/A 17141-2019.docx", "A 17141-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsynsmail/A 17141-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsynsmail/A 17141-2019.docx", "A 17141-2019")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -709,27 +709,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/artfynd/A 9865-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/artfynd/A 9865-2021.xlsx", "A 9865-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/kartor/A 9865-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/kartor/A 9865-2021.png", "A 9865-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomål/A 9865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomål/A 9865-2021.docx", "A 9865-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomålsmail/A 9865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomålsmail/A 9865-2021.docx", "A 9865-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsyn/A 9865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsyn/A 9865-2021.docx", "A 9865-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsynsmail/A 9865-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsynsmail/A 9865-2021.docx", "A 9865-2021")</f>
         <v/>
       </c>
     </row>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -794,27 +794,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/artfynd/A 15108-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/artfynd/A 15108-2023.xlsx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/kartor/A 15108-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/kartor/A 15108-2023.png", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomål/A 15108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomål/A 15108-2023.docx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomålsmail/A 15108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/klagomålsmail/A 15108-2023.docx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsyn/A 15108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsyn/A 15108-2023.docx", "A 15108-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsynsmail/A 15108-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LYSEKIL/tillsynsmail/A 15108-2023.docx", "A 15108-2023")</f>
         <v/>
       </c>
     </row>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>

--- a/Översikt LYSEKIL.xlsx
+++ b/Översikt LYSEKIL.xlsx
@@ -572,7 +572,7 @@
         <v>43549</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44253</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45016</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         <v>43338</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43338</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43343</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>43381</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43409</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
         <v>43430</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43431</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43448</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         <v>43461</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>43510</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>43510</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
         <v>43545</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>43549</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>43549</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>43558</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>43668</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         <v>43690</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>43697</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>43697</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43714</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43725</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43752</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43776</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43894</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43915</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43936</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>44064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44064</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44090</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44111</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>44117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44145</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44159</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44160</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>44164</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>44164</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>44411</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>44435</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44435</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>44472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44473</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         <v>44475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>44498</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>44529</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44746</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         <v>44853</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44868</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>44899</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
         <v>44915</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44986</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44998</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>45008</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3963,7 +3963,7 @@
         <v>45051</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
         <v>45085</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
